--- a/data/trans_camb/PCS12_SP_R3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-1,73</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; -0,43</t>
+          <t>-5,07; -0,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,0</t>
+          <t>-3,5; 4,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,17</t>
+          <t>-3,76; 0,82</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-71,99%</t>
+          <t>-72,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-31,81%</t>
+          <t>-35,81%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-99,1; 2,44</t>
+          <t>-99,13; 6,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,06; 118,09</t>
+          <t>-54,43; 121,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,33; 36,13</t>
+          <t>-69,86; 22,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>1,56</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 9,69</t>
+          <t>1,85; 9,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,45</t>
+          <t>-6,21; 0,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,44</t>
+          <t>-1,06; 4,33</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>127,74%</t>
+          <t>129,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,7%</t>
+          <t>-27,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>23,69%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,52; 282,81</t>
+          <t>27,35; 285,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 22,9</t>
+          <t>-56,23; 16,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 77,68</t>
+          <t>-14,74; 73,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>2,88</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 8,39</t>
+          <t>1,45; 8,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,5</t>
+          <t>-2,91; 4,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 5,49</t>
+          <t>0,4; 5,59</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>72,31%</t>
+          <t>73,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>27,48%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,03; 142,81</t>
+          <t>16,59; 148,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 38,21</t>
+          <t>-18,62; 39,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 59,73</t>
+          <t>3,66; 60,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,01</t>
+          <t>30,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>16,0</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,93; 31,92</t>
+          <t>7,16; 63,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 5,1</t>
+          <t>-6,02; 4,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 15,78</t>
+          <t>2,85; 40,81</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>124,58%</t>
+          <t>271,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>90,27%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>53,29; 372,09</t>
+          <t>58,78; 826,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 24,14</t>
+          <t>-22,36; 19,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,6; 93,28</t>
+          <t>15,3; 241,9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>3,45</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 8,56</t>
+          <t>-2,42; 9,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 9,73</t>
+          <t>-1,7; 9,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 7,52</t>
+          <t>-0,5; 7,59</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>11,08%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 34,21</t>
+          <t>-7,72; 35,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 32,88</t>
+          <t>-4,64; 33,02</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 26,52</t>
+          <t>-1,37; 27,0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-14,2</t>
+          <t>-29,41</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>-7,07</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-11,0</t>
+          <t>-18,76</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 10,8</t>
+          <t>-4,27; 12,77</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 2,53</t>
+          <t>-11,84; 2,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,66; -1,76</t>
+          <t>-12,86; 0,56</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 7,05</t>
+          <t>-7,75; 7,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -1,08</t>
+          <t>-16,03; -1,68</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-33,0; -6,06</t>
+          <t>-52,44; -11,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 6,93</t>
+          <t>-3,39; 7,7</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -2,09</t>
+          <t>-12,19; -1,86</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-22,08; -5,99</t>
+          <t>-34,2; -8,87</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-9,09%</t>
+          <t>-12,49%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-14,68%</t>
+          <t>-16,3%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-9,66%</t>
+          <t>-14,26%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-20,04%</t>
+          <t>-48,13%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-17,72%</t>
+          <t>-37,11%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 22,49</t>
+          <t>-9,6; 37,25</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 5,37</t>
+          <t>-28,53; 9,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-23,81; -4,04</t>
+          <t>-30,73; 1,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 10,15</t>
+          <t>-11,76; 12,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,54; -1,59</t>
+          <t>-25,2; -2,74</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-46,16; -8,81</t>
+          <t>-81,34; -19,21</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 11,56</t>
+          <t>-6,54; 15,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -3,43</t>
+          <t>-22,94; -3,92</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-35,31; -9,89</t>
+          <t>-67,09; -18,09</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>-5,49</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,93</t>
+          <t>-5,76; 11,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,69</t>
+          <t>-14,13; 2,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,01; 11,15</t>
+          <t>-16,96; -2,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,12</t>
+          <t>-3,56; 8,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,29</t>
+          <t>-12,0; 1,23</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,69</t>
+          <t>-7,5; 2,98</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,48</t>
+          <t>-2,3; 7,53</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,41</t>
+          <t>-10,91; -0,15</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,86</t>
+          <t>-9,85; -0,8</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>-8,09%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>-14,38%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-3,87%</t>
+          <t>-7,29%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>-7,65%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>-7,27%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-8,25; 19,13</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-19,71; 4,61</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-23,74; -3,1</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 11,5</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-14,64; 1,63</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 3,82</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 10,34</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-14,08; -0,26</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-12,67; -1,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>11,28</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>6,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 3,93</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 2,69</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 27,26</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 4,12</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 1,29</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 3,81</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 3,48</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 1,41</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 14,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>71,42%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-3,87%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>9,39%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-0,32%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>27,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>0,95; 26,72</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-5,64; 17,92</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>29,71; 71,86</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>31,6; 174,7</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-1,08; 15,62</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-11,51; 4,87</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 17,82</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-17,15; 14,44</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>2,54; 16,61</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-6,71; 6,8</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>14,3; 32,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>12,06; 68,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/PCS12_SP_R3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,01</t>
+          <t>-3,1; 1,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; -0,32</t>
+          <t>-4,85; -0,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; -0,53</t>
+          <t>-5,24; -0,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,36</t>
+          <t>-2,03; 4,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 2,21</t>
+          <t>-3,57; 2,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 4,85</t>
+          <t>-4,04; 4,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,14</t>
+          <t>-1,82; 2,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 0,22</t>
+          <t>-3,42; 0,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,82</t>
+          <t>-3,78; 0,93</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,25; 60,12</t>
+          <t>-56,73; 69,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-84,25; -2,59</t>
+          <t>-84,72; -0,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-99,13; 6,14</t>
+          <t>-99,04; 23,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 106,22</t>
+          <t>-31,92; 109,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 59,6</t>
+          <t>-52,77; 53,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,43; 121,16</t>
+          <t>-63,18; 115,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,75; 54,91</t>
+          <t>-32,23; 56,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,25; 7,61</t>
+          <t>-58,83; 9,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-69,86; 22,0</t>
+          <t>-69,35; 27,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,52</t>
+          <t>-0,14; 4,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,96</t>
+          <t>-1,89; 3,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 9,93</t>
+          <t>2,28; 10,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,62</t>
+          <t>-5,55; 0,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 1,03</t>
+          <t>-5,81; 0,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 0,88</t>
+          <t>-6,37; 0,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,12</t>
+          <t>-1,9; 1,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,2</t>
+          <t>-2,86; 1,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 4,33</t>
+          <t>-1,03; 4,36</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 139,81</t>
+          <t>-4,2; 151,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,57; 92,58</t>
+          <t>-37,33; 100,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,35; 285,51</t>
+          <t>37,67; 300,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 12,45</t>
+          <t>-48,93; 10,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,37; 14,97</t>
+          <t>-52,57; 8,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,23; 16,09</t>
+          <t>-58,95; 11,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 38,29</t>
+          <t>-25,24; 33,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 20,68</t>
+          <t>-37,14; 21,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 73,1</t>
+          <t>-14,03; 72,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 5,39</t>
+          <t>-0,99; 4,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,28</t>
+          <t>-2,6; 3,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,53</t>
+          <t>1,93; 8,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 4,45</t>
+          <t>-2,56; 5,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 0,09</t>
+          <t>-7,13; -0,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 4,58</t>
+          <t>-2,81; 4,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,95</t>
+          <t>-0,66; 4,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 0,94</t>
+          <t>-4,09; 0,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,59</t>
+          <t>0,27; 5,26</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 98,63</t>
+          <t>-11,47; 90,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 60,96</t>
+          <t>-31,03; 56,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,59; 148,82</t>
+          <t>22,96; 157,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 35,99</t>
+          <t>-16,53; 42,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 0,33</t>
+          <t>-44,52; 0,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 39,57</t>
+          <t>-18,07; 38,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 43,09</t>
+          <t>-5,72; 48,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 10,24</t>
+          <t>-35,71; 7,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,66; 60,37</t>
+          <t>2,49; 57,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,03</t>
+          <t>-2,03; 5,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 7,81</t>
+          <t>-0,75; 7,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,16; 63,49</t>
+          <t>6,52; 64,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 0,76</t>
+          <t>-9,42; 1,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,92; -0,5</t>
+          <t>-9,85; -0,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 4,25</t>
+          <t>-5,64; 3,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,91</t>
+          <t>-4,45; 2,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,53</t>
+          <t>-3,81; 2,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,85; 40,81</t>
+          <t>2,92; 42,22</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 67,16</t>
+          <t>-14,27; 67,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 82,33</t>
+          <t>-5,51; 83,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,78; 826,05</t>
+          <t>52,93; 694,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 3,79</t>
+          <t>-35,07; 4,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,19; -2,28</t>
+          <t>-36,95; -0,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 19,51</t>
+          <t>-20,73; 16,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 12,12</t>
+          <t>-22,85; 13,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 15,84</t>
+          <t>-19,66; 14,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,3; 241,9</t>
+          <t>15,35; 241,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 1,0</t>
+          <t>-10,52; 1,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 1,19</t>
+          <t>-10,26; 1,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 9,05</t>
+          <t>-2,61; 8,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,78; 16,69</t>
+          <t>3,6; 16,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 9,53</t>
+          <t>-4,0; 9,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 9,74</t>
+          <t>-2,14; 9,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 7,32</t>
+          <t>-1,45; 7,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,52</t>
+          <t>-4,98; 4,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,59</t>
+          <t>-0,79; 7,41</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-34,56; 4,03</t>
+          <t>-34,05; 6,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-33,75; 5,54</t>
+          <t>-31,96; 6,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 35,66</t>
+          <t>-8,3; 35,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,25; 57,36</t>
+          <t>10,26; 57,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 31,6</t>
+          <t>-10,73; 31,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 33,02</t>
+          <t>-5,71; 31,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 25,32</t>
+          <t>-4,4; 27,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 11,91</t>
+          <t>-15,04; 13,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 27,0</t>
+          <t>-2,25; 25,87</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 12,77</t>
+          <t>-2,96; 13,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 2,93</t>
+          <t>-12,11; 3,2</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 0,56</t>
+          <t>-12,55; -0,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 7,26</t>
+          <t>-6,54; 7,39</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -1,68</t>
+          <t>-16,35; -1,94</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-52,44; -11,46</t>
+          <t>-48,72; -11,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 7,7</t>
+          <t>-3,2; 7,44</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,19; -1,86</t>
+          <t>-12,99; -2,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-34,2; -8,87</t>
+          <t>-33,82; -8,78</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 37,25</t>
+          <t>-6,92; 38,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 9,3</t>
+          <t>-28,5; 9,59</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 1,52</t>
+          <t>-29,69; 0,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 12,54</t>
+          <t>-10,18; 12,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-25,2; -2,74</t>
+          <t>-25,78; -3,41</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-81,34; -19,21</t>
+          <t>-76,82; -19,28</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 15,96</t>
+          <t>-6,03; 15,57</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-22,94; -3,92</t>
+          <t>-24,77; -4,59</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-67,09; -18,09</t>
+          <t>-64,58; -17,69</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 11,87</t>
+          <t>-5,42; 11,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 2,97</t>
+          <t>-13,44; 3,55</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-16,96; -2,0</t>
+          <t>-17,48; -1,35</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 8,87</t>
+          <t>-3,58; 8,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 1,23</t>
+          <t>-13,23; 0,75</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 2,98</t>
+          <t>-8,22; 2,99</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 7,53</t>
+          <t>-2,46; 7,86</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-10,91; -0,15</t>
+          <t>-11,41; -0,87</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -0,8</t>
+          <t>-9,68; -0,48</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 19,13</t>
+          <t>-7,4; 18,91</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 4,61</t>
+          <t>-19,09; 5,84</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-23,74; -3,1</t>
+          <t>-24,42; -2,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 11,5</t>
+          <t>-4,21; 11,25</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 1,63</t>
+          <t>-15,72; 1,01</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 3,82</t>
+          <t>-9,59; 3,94</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 10,34</t>
+          <t>-3,13; 10,83</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-14,08; -0,26</t>
+          <t>-14,78; -1,24</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-12,67; -1,17</t>
+          <t>-12,33; -0,71</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,93</t>
+          <t>0,34; 3,92</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,69</t>
+          <t>-0,95; 2,72</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>5,14; 27,26</t>
+          <t>5,13; 30,73</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,12</t>
+          <t>-0,29; 4,1</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,29</t>
+          <t>-3,24; 0,98</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,81</t>
+          <t>-3,58; 3,88</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,48</t>
+          <t>0,57; 3,45</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,41</t>
+          <t>-1,58; 1,44</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>2,64; 14,62</t>
+          <t>2,55; 13,98</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,95; 26,72</t>
+          <t>1,82; 26,22</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 17,92</t>
+          <t>-5,87; 18,29</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>31,6; 174,7</t>
+          <t>31,91; 197,18</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 15,62</t>
+          <t>-1,05; 15,83</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 4,87</t>
+          <t>-11,55; 3,73</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 14,44</t>
+          <t>-12,85; 14,6</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>2,54; 16,61</t>
+          <t>2,52; 16,51</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 6,8</t>
+          <t>-7,08; 6,87</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>12,06; 68,22</t>
+          <t>11,77; 66,1</t>
         </is>
       </c>
     </row>
